--- a/all_udp_summary_tables.xlsx
+++ b/all_udp_summary_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://personalmicrosoftsoftware0-my.sharepoint.com/personal/carsonmatt_personalmicrosoftsoftware_ucla_edu/Documents/1)_PS-Honors/HP_PC/udp_expansion_HP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_9A0E04DDDD300D937CA512FB985FA0D8EC5B3882" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE745DA-58F6-4C59-B4C5-F603D4E842FB}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_9A0E04DDDD300D937CA512FB985FA0D8EC5B3882" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B58FF3-2347-4A26-85AF-92D8C7215E9D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-12960" windowWidth="11520" windowHeight="12504" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UDP Only" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="15">
   <si>
     <t>UDP Typology</t>
   </si>
@@ -99,13 +99,18 @@
   <si>
     <t>Population</t>
   </si>
+  <si>
+    <t>Annual Rate Per 
+10 Million Population</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,9 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -896,12 +905,20 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -931,13 +948,13 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>126</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2118847</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>99.110506799216694</v>
       </c>
     </row>
@@ -951,13 +968,13 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>188287</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>8.8517352056523695</v>
       </c>
     </row>
@@ -971,13 +988,13 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>397706</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>46.0977036638455</v>
       </c>
     </row>
@@ -991,13 +1008,13 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>209101</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>135.500706994865</v>
       </c>
     </row>
@@ -1011,13 +1028,13 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>62</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2028195</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>50.948421297426201</v>
       </c>
       <c r="H6" s="1">
@@ -1035,13 +1052,13 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>354087</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>89.431881618547607</v>
       </c>
     </row>
@@ -1055,13 +1072,13 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>39</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>676962</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>96.017206283365994</v>
       </c>
     </row>
@@ -1075,13 +1092,13 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>782014</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>46.887481127788803</v>
       </c>
     </row>
@@ -1095,13 +1112,13 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>169</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>7012916</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>40.163986944470302</v>
       </c>
     </row>
@@ -1115,13 +1132,13 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>386</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>8831235</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>72.847493395129106</v>
       </c>
     </row>
@@ -1135,13 +1152,13 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
         <v>987430</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>15.190950244574299</v>
       </c>
     </row>
@@ -1155,13 +1172,13 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>71</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1703301</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>69.472943028468407</v>
       </c>
     </row>
@@ -1175,13 +1192,13 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>125</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1336040</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>155.933455086175</v>
       </c>
     </row>
@@ -1195,13 +1212,13 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>358</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>11316912</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>52.723452004103798</v>
       </c>
     </row>
@@ -1215,13 +1232,13 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>89</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1819231</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>81.536282821331298</v>
       </c>
     </row>
@@ -1235,13 +1252,13 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>181</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>3069068</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>98.292597839691595</v>
       </c>
     </row>
@@ -1255,13 +1272,13 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>80</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>2872300</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>46.420406410658103</v>
       </c>
     </row>
@@ -1275,13 +1292,13 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>768</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>25993617</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>49.2428583524948</v>
       </c>
     </row>
@@ -1295,13 +1312,13 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>95</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>4434196</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>35.707337549655698</v>
       </c>
     </row>
@@ -1315,13 +1332,13 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
         <v>640892</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>26.005421610297301</v>
       </c>
     </row>
@@ -1335,13 +1352,13 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>17</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>967678</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>29.279712190763199</v>
       </c>
     </row>
@@ -1355,13 +1372,13 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>51</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1001552</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>84.868284422576195</v>
       </c>
     </row>
@@ -1375,13 +1392,13 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>223</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>11415737</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>32.557395695666997</v>
       </c>
     </row>
@@ -1395,13 +1412,13 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>88</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>3094287</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>47.3991800588202</v>
       </c>
     </row>
@@ -1415,13 +1432,13 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>357</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>8786432</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>67.718045277081799</v>
       </c>
     </row>
@@ -1435,13 +1452,13 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>238</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>14394950</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>27.555960018386099</v>
       </c>
     </row>
@@ -1455,18 +1472,18 @@
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>1786</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>135784742</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>21.921952517070501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_udp_summary_tables.xlsx
+++ b/all_udp_summary_tables.xlsx
@@ -1,125 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://personalmicrosoftsoftware0-my.sharepoint.com/personal/carsonmatt_personalmicrosoftsoftware_ucla_edu/Documents/1)_PS-Honors/HP_PC/udp_expansion_HP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_9A0E04DDDD300D937CA512FB985FA0D8EC5B3882" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B58FF3-2347-4A26-85AF-92D8C7215E9D}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12960" windowWidth="11520" windowHeight="12504" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UDP Only" sheetId="1" r:id="rId1"/>
-    <sheet name="UDP &amp; Majority" sheetId="2" r:id="rId2"/>
-    <sheet name="UDP &amp; Victim Race" sheetId="3" r:id="rId3"/>
-    <sheet name="UDP, Victim &amp; Majority" sheetId="4" r:id="rId4"/>
+    <sheet name="UDP Only" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UDP &amp; Majority" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UDP &amp; Victim Race" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="UDP, Victim &amp; Majority" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
-<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
-  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
-      <code xml:space="preserve">import numpy as np
-import pandas as pd
-import matplotlib.pyplot as plt
-import seaborn as sns
-import statsmodels as sm
-import excel
-import warnings
-warnings.simplefilter('ignore')
-excel.set_xl_scalar_conversion(excel.convert_to_scalar)
-excel.set_xl_array_conversion(excel.convert_to_dataframe)
-</code>
-    </initialization>
-  </environmentDefinition>
-</python>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>UDP Typology</t>
+    <t xml:space="preserve">UDP Typology</t>
   </si>
   <si>
-    <t>luof_count</t>
+    <t xml:space="preserve">luof_count</t>
   </si>
   <si>
-    <t>Annual Rate Per 10 Million Population</t>
+    <t xml:space="preserve">pop_18</t>
   </si>
   <si>
-    <t>Gentrifying</t>
+    <t xml:space="preserve">Annual Rate Per 10 Million Population</t>
   </si>
   <si>
-    <t>L-income/At-risk</t>
+    <t xml:space="preserve">Gentrifying</t>
   </si>
   <si>
-    <t>Stable</t>
+    <t xml:space="preserve">L-income/At-risk</t>
   </si>
   <si>
-    <t>Majority</t>
+    <t xml:space="preserve">Stable</t>
   </si>
   <si>
-    <t>population</t>
+    <t xml:space="preserve">Majority</t>
   </si>
   <si>
-    <t>Black</t>
+    <t xml:space="preserve">population</t>
   </si>
   <si>
-    <t>Hispanic/Latino</t>
+    <t xml:space="preserve">Black</t>
   </si>
   <si>
-    <t>White</t>
+    <t xml:space="preserve">Hispanic/Latino</t>
   </si>
   <si>
-    <t>Victim</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
-    <t>LUOF Count</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Annual Rate Per 
-10 Million Population</t>
+    <t xml:space="preserve">Victim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,32 +87,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -452,1038 +378,1013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
         <v>541</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>17818282</v>
       </c>
-      <c r="D2">
-        <v>50.603456981243603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="n">
+        <v>50.6034569812436</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
         <v>2476</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>72763075</v>
       </c>
-      <c r="D3">
-        <v>56.713747552129497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="n">
+        <v>56.7137475521295</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
         <v>3403</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>225877492</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>25.1094813230292</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
         <v>138</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3603811</v>
       </c>
-      <c r="E2">
-        <v>63.821326923082303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="n">
+        <v>63.8213269230823</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
         <v>466</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>16263578</v>
       </c>
-      <c r="E3">
-        <v>47.754969211981901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="n">
+        <v>47.7549692119819</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>122</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>19323611</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>10.52253294342</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
         <v>98</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3762330</v>
       </c>
-      <c r="E5">
-        <v>43.412814222392299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="n">
+        <v>43.4128142223923</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
         <v>572</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>18358211</v>
       </c>
-      <c r="E6">
-        <v>51.929533511371702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="n">
+        <v>51.9295335113717</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
         <v>362</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>35062874</v>
       </c>
-      <c r="E7">
-        <v>17.207184252304401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="n">
+        <v>17.2071842523044</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
         <v>230</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>8778360</v>
       </c>
-      <c r="E8">
-        <v>43.667989616891198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="n">
+        <v>43.6679896168912</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
         <v>1029</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>33408864</v>
       </c>
-      <c r="E9">
-        <v>51.333681983320403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="n">
+        <v>51.3336819833204</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>2381</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>151315461</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>26.2255641763754</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
         <v>220</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3603811</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>101.744144370131</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
         <v>102</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3762330</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>45.1847658233063</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
         <v>219</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>8778360</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>41.5795205482573</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
         <v>864</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>16263578</v>
       </c>
-      <c r="E5">
-        <v>88.541402144103799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="n">
+        <v>88.5414021441038</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
         <v>527</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>18358211</v>
       </c>
-      <c r="E6">
-        <v>47.844168112749799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="n">
+        <v>47.8441681127498</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>1085</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>33408864</v>
       </c>
-      <c r="E7">
-        <v>54.127351751120102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="n">
+        <v>54.1273517511201</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
         <v>673</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>19323611</v>
       </c>
-      <c r="E8">
-        <v>58.046431728866096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="n">
+        <v>58.0464317288661</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
         <v>626</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>35062874</v>
       </c>
-      <c r="E9">
-        <v>29.756070005366201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="n">
+        <v>29.7560700053662</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>2104</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>151315461</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>23.1745430605182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F28"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
         <v>126</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" t="n">
         <v>2118847</v>
       </c>
-      <c r="F2" s="1">
-        <v>99.110506799216694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" t="n">
+        <v>99.1105067992167</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" t="n">
         <v>188287</v>
       </c>
-      <c r="F3" s="1">
-        <v>8.8517352056523695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" t="n">
+        <v>8.85173520565237</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
         <v>397706</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" t="n">
         <v>46.0977036638455</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" t="n">
         <v>209101</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="n">
         <v>135.500706994865</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
         <v>62</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" t="n">
         <v>2028195</v>
       </c>
-      <c r="F6" s="1">
-        <v>50.948421297426201</v>
-      </c>
-      <c r="H6" s="1">
-        <f>MIN(E2:E1048576)</f>
-        <v>188287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="n">
+        <v>50.9484212974262</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" t="n">
         <v>354087</v>
       </c>
-      <c r="F7" s="1">
-        <v>89.431881618547607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="n">
+        <v>89.4318816185476</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
         <v>39</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" t="n">
         <v>676962</v>
       </c>
-      <c r="F8" s="1">
-        <v>96.017206283365994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="n">
+        <v>96.017206283366</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" t="n">
         <v>782014</v>
       </c>
-      <c r="F9" s="1">
-        <v>46.887481127788803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" t="n">
+        <v>46.8874811277888</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
         <v>169</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" t="n">
         <v>7012916</v>
       </c>
-      <c r="F10" s="1">
-        <v>40.163986944470302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" t="n">
+        <v>40.1639869444703</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
         <v>386</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" t="n">
         <v>8831235</v>
       </c>
-      <c r="F11" s="1">
-        <v>72.847493395129106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="n">
+        <v>72.8474933951291</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
         <v>987430</v>
       </c>
-      <c r="F12" s="1">
-        <v>15.190950244574299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" t="n">
+        <v>15.1909502445743</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
         <v>71</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" t="n">
         <v>1703301</v>
       </c>
-      <c r="F13" s="1">
-        <v>69.472943028468407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="n">
+        <v>69.4729430284684</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
         <v>125</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" t="n">
         <v>1336040</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" t="n">
         <v>155.933455086175</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
         <v>358</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" t="n">
         <v>11316912</v>
       </c>
-      <c r="F15" s="1">
-        <v>52.723452004103798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="n">
+        <v>52.7234520041038</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
         <v>89</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" t="n">
         <v>1819231</v>
       </c>
-      <c r="F16" s="1">
-        <v>81.536282821331298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" t="n">
+        <v>81.5362828213313</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
         <v>181</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" t="n">
         <v>3069068</v>
       </c>
-      <c r="F17" s="1">
-        <v>98.292597839691595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="n">
+        <v>98.2925978396916</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
         <v>80</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" t="n">
         <v>2872300</v>
       </c>
-      <c r="F18" s="1">
-        <v>46.420406410658103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="n">
+        <v>46.4204064106581</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
         <v>768</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" t="n">
         <v>25993617</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" t="n">
         <v>49.2428583524948</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
         <v>95</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" t="n">
         <v>4434196</v>
       </c>
-      <c r="F20" s="1">
-        <v>35.707337549655698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="n">
+        <v>35.7073375496557</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
         <v>640892</v>
       </c>
-      <c r="F21" s="1">
-        <v>26.005421610297301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="n">
+        <v>26.0054216102973</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
         <v>17</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" t="n">
         <v>967678</v>
       </c>
-      <c r="F22" s="1">
-        <v>29.279712190763199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="n">
+        <v>29.2797121907632</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
         <v>51</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" t="n">
         <v>1001552</v>
       </c>
-      <c r="F23" s="1">
-        <v>84.868284422576195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="n">
+        <v>84.8682844225762</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
         <v>223</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" t="n">
         <v>11415737</v>
       </c>
-      <c r="F24" s="1">
-        <v>32.557395695666997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="n">
+        <v>32.557395695667</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
         <v>88</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" t="n">
         <v>3094287</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" t="n">
         <v>47.3991800588202</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
         <v>357</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" t="n">
         <v>8786432</v>
       </c>
-      <c r="F26" s="1">
-        <v>67.718045277081799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="n">
+        <v>67.7180452770818</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
         <v>238</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" t="n">
         <v>14394950</v>
       </c>
-      <c r="F27" s="1">
-        <v>27.555960018386099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" t="n">
+        <v>27.5559600183861</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
+        <v>11</v>
+      </c>
+      <c r="D28" t="n">
         <v>1786</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" t="n">
         <v>135784742</v>
       </c>
-      <c r="F28" s="1">
-        <v>21.921952517070501</v>
+      <c r="F28" t="n">
+        <v>21.9219525170705</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>